--- a/fuentes/contenidos/grado06/guion07/SolicitudGrafica LE_06_07_CO_REC200.xlsx
+++ b/fuentes/contenidos/grado06/guion07/SolicitudGrafica LE_06_07_CO_REC200.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris\Documents\GitHub\Lenguaje\fuentes\contenidos\grado06\guion07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -596,9 +596,6 @@
     <t>Cristian Pineda</t>
   </si>
   <si>
-    <t>LE_07_06_CO_REC200</t>
-  </si>
-  <si>
     <t>personas hablando</t>
   </si>
   <si>
@@ -612,6 +609,9 @@
   </si>
   <si>
     <t>lápiz y papel</t>
+  </si>
+  <si>
+    <t>LE_06_07_CO_REC200</t>
   </si>
 </sst>
 </file>
@@ -2487,9 +2487,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2687,7 +2687,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -2790,14 +2790,14 @@
         <v>Recurso M101</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>LE_07_06_CO_REC200_IMG01n.png</v>
+        <v>LE_06_07_CO_REC200_IMG01n.png</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2805,14 +2805,14 @@
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>LE_07_06_CO_REC200_IMG01a.png</v>
+        <v>LE_06_07_CO_REC200_IMG01a.png</v>
       </c>
       <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
@@ -2833,14 +2833,14 @@
         <v>Recurso M101</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>LE_07_06_CO_REC200_IMG02n.png</v>
+        <v>LE_06_07_CO_REC200_IMG02n.png</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2848,14 +2848,14 @@
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>LE_07_06_CO_REC200_IMG02a.png</v>
+        <v>LE_06_07_CO_REC200_IMG02a.png</v>
       </c>
       <c r="I11" s="13" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
@@ -2876,14 +2876,14 @@
         <v>Recurso M101</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LE_07_06_CO_REC200_IMG03n.png</v>
+        <v>LE_06_07_CO_REC200_IMG03n.png</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2891,14 +2891,14 @@
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>LE_07_06_CO_REC200_IMG03a.png</v>
+        <v>LE_06_07_CO_REC200_IMG03a.png</v>
       </c>
       <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J12" s="64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
@@ -2919,14 +2919,14 @@
         <v>Recurso M101</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LE_07_06_CO_REC200_IMG04n.png</v>
+        <v>LE_06_07_CO_REC200_IMG04n.png</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2934,14 +2934,14 @@
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>LE_07_06_CO_REC200_IMG04a.png</v>
+        <v>LE_06_07_CO_REC200_IMG04a.png</v>
       </c>
       <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">

--- a/fuentes/contenidos/grado06/guion07/SolicitudGrafica LE_06_07_CO_REC200.xlsx
+++ b/fuentes/contenidos/grado06/guion07/SolicitudGrafica LE_06_07_CO_REC200.xlsx
@@ -611,7 +611,7 @@
     <t>lápiz y papel</t>
   </si>
   <si>
-    <t>LE_06_07_CO_REC200</t>
+    <t>LE_06_07_REC200</t>
   </si>
 </sst>
 </file>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>LE_06_07_CO_REC200_IMG01n.png</v>
+        <v>LE_06_07_REC200_IMG01n.png</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>LE_06_07_CO_REC200_IMG01a.png</v>
+        <v>LE_06_07_REC200_IMG01a.png</v>
       </c>
       <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>LE_06_07_CO_REC200_IMG02n.png</v>
+        <v>LE_06_07_REC200_IMG02n.png</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>LE_06_07_CO_REC200_IMG02a.png</v>
+        <v>LE_06_07_REC200_IMG02a.png</v>
       </c>
       <c r="I11" s="13" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LE_06_07_CO_REC200_IMG03n.png</v>
+        <v>LE_06_07_REC200_IMG03n.png</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>LE_06_07_CO_REC200_IMG03a.png</v>
+        <v>LE_06_07_REC200_IMG03a.png</v>
       </c>
       <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LE_06_07_CO_REC200_IMG04n.png</v>
+        <v>LE_06_07_REC200_IMG04n.png</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>LE_06_07_CO_REC200_IMG04a.png</v>
+        <v>LE_06_07_REC200_IMG04a.png</v>
       </c>
       <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
